--- a/Altium/JLCPCB 1206 Capacitors.DbLib.xlsx
+++ b/Altium/JLCPCB 1206 Capacitors.DbLib.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1540" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1705" uniqueCount="105">
   <si>
     <t>Comment</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Passives.SchLib</t>
+  </si>
+  <si>
+    <t>Dielectric</t>
+  </si>
+  <si>
+    <t>X7R</t>
+  </si>
+  <si>
+    <t>X5R</t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -375,15 +384,16 @@
     <col min="3" max="3" width="14.28515625" customWidth="true"/>
     <col min="4" max="4" width="6.28515625" customWidth="true"/>
     <col min="5" max="5" width="9.85546875" customWidth="true"/>
-    <col min="6" max="6" width="8" customWidth="true"/>
-    <col min="7" max="7" width="36.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
-    <col min="9" max="9" width="10" customWidth="true"/>
-    <col min="10" max="10" width="21.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true"/>
-    <col min="12" max="12" width="12.85546875" customWidth="true"/>
-    <col min="13" max="13" width="14.85546875" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="9.5703125" customWidth="true"/>
+    <col min="7" max="7" width="8" customWidth="true"/>
+    <col min="8" max="8" width="36.28515625" customWidth="true"/>
+    <col min="9" max="9" width="26.28515625" customWidth="true"/>
+    <col min="10" max="10" width="10" customWidth="true"/>
+    <col min="11" max="11" width="21.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.5703125" customWidth="true"/>
+    <col min="13" max="13" width="12.85546875" customWidth="true"/>
+    <col min="14" max="14" width="14.85546875" customWidth="true"/>
+    <col min="15" max="15" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -403,30 +413,33 @@
         <v>44</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>86</v>
       </c>
     </row>
@@ -447,30 +460,33 @@
         <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -491,30 +507,33 @@
         <v>45</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -535,30 +554,33 @@
         <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -579,30 +601,33 @@
         <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -623,30 +648,33 @@
         <v>45</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -667,30 +695,33 @@
         <v>45</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -711,30 +742,33 @@
         <v>45</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -755,30 +789,33 @@
         <v>45</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -799,30 +836,33 @@
         <v>46</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>101</v>
       </c>
     </row>
@@ -843,30 +883,33 @@
         <v>46</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>101</v>
       </c>
     </row>
